--- a/任务管理.xlsx
+++ b/任务管理.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
   <si>
     <t>助理主管汇报</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -161,11 +161,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>完成保存后跳转到别的页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>保存时后端检查本月是否已经提交汇报，已提交不能再提交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成保存后跳转到别的页面，基础汇报，本月汇报后，不能再汇报</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -500,7 +504,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -528,13 +532,16 @@
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" t="s">
         <v>36</v>
       </c>
     </row>

--- a/任务管理.xlsx
+++ b/任务管理.xlsx
@@ -129,10 +129,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>页面回显(密码不用回显，密码已经加密，不可修改用户，只需重新填写密码)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>删除用户</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -161,15 +157,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>保存时后端检查本月是否已经提交汇报，已提交不能再提交</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ok</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>完成保存后跳转到别的页面，基础汇报，本月汇报后，不能再汇报</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四折标课-保存时后端检查本月是否已经提交汇报，已提交不能再提交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增用户有页面，没有修改页面，只有重置密码按钮，发邮件给用户账号密码。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -504,7 +504,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -525,24 +525,24 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -696,39 +696,39 @@
         <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
       <c r="B25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" t="s">
         <v>28</v>
-      </c>
-      <c r="C25" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
       <c r="B26" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" t="s">
         <v>31</v>
-      </c>
-      <c r="C26" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/任务管理.xlsx
+++ b/任务管理.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
   <si>
     <t>助理主管汇报</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -137,22 +137,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>前端修改接口调用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户修改密码界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>页面布局</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改接口调用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ok</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -170,6 +154,30 @@
   </si>
   <si>
     <t>新增用户有页面，没有修改页面，只有重置密码按钮，发邮件给用户账号密码。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表，分页接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端重置接口调用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -501,10 +509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -525,24 +533,24 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -622,6 +630,9 @@
       <c r="C13" t="s">
         <v>6</v>
       </c>
+      <c r="D13" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
@@ -629,6 +640,9 @@
       <c r="C14" t="s">
         <v>8</v>
       </c>
+      <c r="D14" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
@@ -644,7 +658,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="2" t="s">
         <v>14</v>
@@ -652,98 +666,103 @@
       <c r="C17" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2" t="s">
+      <c r="D19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C20" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C23" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
       <c r="C24" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="2"/>
+      <c r="C25" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="2"/>
+      <c r="B26" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C26" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
-      <c r="C27" t="s">
-        <v>32</v>
-      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="A13:A27"/>
-    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A13:A28"/>
+    <mergeCell ref="B24:B25"/>
     <mergeCell ref="A6:A12"/>
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="B20:B23"/>
     <mergeCell ref="B13:B16"/>
-    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B17:B19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
